--- a/Reg4Event/registrations.xlsx
+++ b/Reg4Event/registrations.xlsx
@@ -1,37 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -330,12 +385,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reg4Event/registrations.xlsx
+++ b/Reg4Event/registrations.xlsx
@@ -1,39 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Git\Reg4Event\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>event_name</t>
+  </si>
+  <si>
+    <t>user_info</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,85 +56,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -385,19 +357,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Reg4Event/registrations.xlsx
+++ b/Reg4Event/registrations.xlsx
@@ -19,12 +19,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>event_name</t>
   </si>
   <si>
     <t>user_info</t>
+  </si>
+  <si>
+    <t>Танцы</t>
+  </si>
+  <si>
+    <t>Вася Пупкин, 89182547412</t>
   </si>
 </sst>
 </file>
@@ -358,16 +364,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -378,6 +384,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Reg4Event/registrations.xlsx
+++ b/Reg4Event/registrations.xlsx
@@ -367,7 +367,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Reg4Event/registrations.xlsx
+++ b/Reg4Event/registrations.xlsx
@@ -1,54 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Git\Reg4Event\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>event_name</t>
-  </si>
-  <si>
-    <t>user_info</t>
-  </si>
-  <si>
-    <t>Танцы</t>
-  </si>
-  <si>
-    <t>Вася Пупкин, 89182547412</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -81,23 +62,83 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -363,37 +404,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col width="11.109375" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col width="23.88671875" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>event_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user_info</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Танцы</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Вася Пупкин, 89182547412</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Шманцы</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Пупка Васькин, 89182763340</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>45263.8328762001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Reg4Event/registrations.xlsx
+++ b/Reg4Event/registrations.xlsx
@@ -1,41 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Git\Reg4Event\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>event_name</t>
+  </si>
+  <si>
+    <t>user_info</t>
+  </si>
+  <si>
+    <t>Обжиманцы</t>
+  </si>
+  <si>
+    <t>Вася Петров, 89182114477</t>
+  </si>
+  <si>
+    <t>recording_date</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -58,87 +83,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -404,64 +384,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="11.109375" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="23.88671875" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col min="1" max="1" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>event_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>user_info</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Танцы</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>Вася Пупкин, 89182547412</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Шманцы</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Пупка Васькин, 89182763340</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>45263.8328762001</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45263.834388303469</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Reg4Event/registrations.xlsx
+++ b/Reg4Event/registrations.xlsx
@@ -19,18 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>event_name</t>
   </si>
   <si>
     <t>user_info</t>
-  </si>
-  <si>
-    <t>Обжиманцы</t>
-  </si>
-  <si>
-    <t>Вася Петров, 89182114477</t>
   </si>
   <si>
     <t>recording_date</t>
@@ -40,9 +34,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,11 +91,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -385,17 +375,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -406,18 +396,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3">
-        <v>45263.834388303469</v>
       </c>
     </row>
   </sheetData>

--- a/Reg4Event/registrations.xlsx
+++ b/Reg4Event/registrations.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>event_name</t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>recording_date</t>
+  </si>
+  <si>
+    <t>Концерт</t>
+  </si>
+  <si>
+    <t>Вася Пупкин</t>
   </si>
 </sst>
 </file>
@@ -375,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -399,6 +405,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Reg4Event/registrations.xlsx
+++ b/Reg4Event/registrations.xlsx
@@ -1,63 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Git\Reg4Event\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>event_name</t>
-  </si>
-  <si>
-    <t>user_info</t>
-  </si>
-  <si>
-    <t>recording_date</t>
-  </si>
-  <si>
-    <t>Концерт</t>
-  </si>
-  <si>
-    <t>Вася Пупкин</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -80,41 +72,98 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -153,20 +202,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -196,12 +245,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -240,181 +289,234 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col width="11.109375" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
+    <col width="23.6640625" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="18.109375" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>event_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user_info</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>recording_date</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
+    <row r="2">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>Мьюзикл</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>Васильев Игорь 89183217432</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>45263.84862296296</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Танцы</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Анатолий Труханов 89182274433</t>
+        </is>
+      </c>
+      <c r="C3" s="7" t="n">
+        <v>45263.8505727571</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Reg4Event/registrations.xlsx
+++ b/Reg4Event/registrations.xlsx
@@ -1,42 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Git\Reg4Event\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>event_name</t>
+  </si>
+  <si>
+    <t>user_info</t>
+  </si>
+  <si>
+    <t>recording_date</t>
+  </si>
+  <si>
+    <t>Мьюзикл</t>
+  </si>
+  <si>
+    <t>Васильев Игорь 89183217432</t>
+  </si>
+  <si>
+    <t>Танцы</t>
+  </si>
+  <si>
+    <t>Анатолий Труханов 89182274433</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -76,94 +106,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -451,69 +421,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="11.109375" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="23.6640625" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
-    <col width="18.109375" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
+    <col min="1" max="1" width="11.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.21875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>event_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>user_info</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>recording_date</t>
-        </is>
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>Мьюзикл</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>Васильев Игорь 89183217432</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>45263.84862296296</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45263.848622962963</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Танцы</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Анатолий Труханов 89182274433</t>
-        </is>
-      </c>
-      <c r="C3" s="7" t="n">
-        <v>45263.8505727571</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6">
+        <v>45263.850572757103</v>
       </c>
     </row>
   </sheetData>

--- a/Reg4Event/registrations.xlsx
+++ b/Reg4Event/registrations.xlsx
@@ -1,72 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Git\Reg4Event\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>event_name</t>
-  </si>
-  <si>
-    <t>user_info</t>
-  </si>
-  <si>
-    <t>recording_date</t>
-  </si>
-  <si>
-    <t>Мьюзикл</t>
-  </si>
-  <si>
-    <t>Васильев Игорь 89183217432</t>
-  </si>
-  <si>
-    <t>Танцы</t>
-  </si>
-  <si>
-    <t>Анатолий Труханов 89182274433</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -106,34 +76,94 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,54 +451,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.21875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20" style="5" customWidth="1"/>
+    <col width="11.109375" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="37.21875" customWidth="1" style="4" min="2" max="2"/>
+    <col width="20" customWidth="1" style="5" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>event_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user_info</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>recording_date</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3">
-        <v>45263.848622962963</v>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>Мьюзикл</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>Васильев Игорь 89183217432</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>45263.84862296296</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6">
-        <v>45263.850572757103</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Танцы</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Анатолий Труханов 89182274433</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>45263.85057275463</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Мьюзикл</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Меломан Винилов 89182273621</t>
+        </is>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>45263.85238500146</v>
       </c>
     </row>
   </sheetData>

--- a/Reg4Event/registrations.xlsx
+++ b/Reg4Event/registrations.xlsx
@@ -1,42 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t>event_name</t>
+  </si>
+  <si>
+    <t>user_info</t>
+  </si>
+  <si>
+    <t>recording_date</t>
+  </si>
+  <si>
+    <t>Мьюзикл</t>
+  </si>
+  <si>
+    <t>Васильев Игорь 89183217432</t>
+  </si>
+  <si>
+    <t>Танцы</t>
+  </si>
+  <si>
+    <t>Анатолий Труханов 89182274433</t>
+  </si>
+  <si>
+    <t>Меломан Винилов 89182273621</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,119 +85,68 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="9">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -172,10 +155,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -213,71 +196,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -305,7 +288,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -328,11 +311,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -341,13 +324,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -357,7 +340,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -366,7 +349,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -375,7 +358,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -383,10 +366,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -451,84 +434,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="11.109375" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="37.21875" customWidth="1" style="4" min="2" max="2"/>
-    <col width="20" customWidth="1" style="5" min="3" max="3"/>
+    <col min="1" max="1" style="7" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="37.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="20.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>event_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>user_info</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>recording_date</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>Мьюзикл</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>Васильев Игорь 89183217432</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>45263.84862296296</v>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4">
+        <v>25569.125523877316</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Танцы</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Анатолий Труханов 89182274433</t>
-        </is>
-      </c>
-      <c r="C3" s="6" t="n">
-        <v>45263.85057275463</v>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6">
+        <v>25569.125523877316</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Мьюзикл</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Меломан Винилов 89182273621</t>
-        </is>
-      </c>
-      <c r="C4" s="7" t="n">
-        <v>45263.85238500146</v>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6">
+        <v>25569.125523877316</v>
       </c>
     </row>
   </sheetData>

--- a/Reg4Event/registrations.xlsx
+++ b/Reg4Event/registrations.xlsx
@@ -1,76 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
-  <si>
-    <t>event_name</t>
-  </si>
-  <si>
-    <t>user_info</t>
-  </si>
-  <si>
-    <t>recording_date</t>
-  </si>
-  <si>
-    <t>Мьюзикл</t>
-  </si>
-  <si>
-    <t>Васильев Игорь 89183217432</t>
-  </si>
-  <si>
-    <t>Танцы</t>
-  </si>
-  <si>
-    <t>Анатолий Труханов 89182274433</t>
-  </si>
-  <si>
-    <t>Меломан Винилов 89182273621</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -108,45 +79,108 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -434,63 +468,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="7" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="37.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="20.005" customWidth="1" bestFit="1"/>
+    <col width="11.14785714285714" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
+    <col width="37.29071428571429" bestFit="1" customWidth="1" style="7" min="2" max="2"/>
+    <col width="20.005" bestFit="1" customWidth="1" style="8" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>event_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user_info</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>recording_date</t>
+        </is>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4">
-        <v>25569.125523877316</v>
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Мьюзикл</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Васильев Игорь 89183217432</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>25569.12552387732</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6">
-        <v>25569.125523877316</v>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>Танцы</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>Анатолий Труханов 89182274433</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>25569.12552387732</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6">
-        <v>25569.125523877316</v>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>Мьюзикл</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>Меломан Винилов 89182273621</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>25569.12552387732</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Танцы</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Владимир Танцура 89124417755</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>45263.85811506071</v>
       </c>
     </row>
   </sheetData>

--- a/Reg4Event/registrations.xlsx
+++ b/Reg4Event/registrations.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,7 +560,37 @@
         </is>
       </c>
       <c r="C5" s="9" t="n">
-        <v>45263.85811506071</v>
+        <v>45263.85811505787</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Мьюзикл</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Кисолал сдадда дабабьа</t>
+        </is>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>45263.86035364583</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Николай Иванов 891833773</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>45263.87007853983</v>
       </c>
     </row>
   </sheetData>

--- a/Reg4Event/registrations.xlsx
+++ b/Reg4Event/registrations.xlsx
@@ -1,60 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Git\Reg4Event\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>event_name</t>
-  </si>
-  <si>
-    <t>user_info</t>
-  </si>
-  <si>
-    <t>recording_date</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -94,32 +76,92 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -407,32 +449,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col width="11.109375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="37.33203125" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="20" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" ht="19.5" customHeight="1" s="3">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>event_name</t>
+        </is>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user_info</t>
+        </is>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>recording_date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Вася Васильев 89192543212</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>45263.8885952807</v>
       </c>
     </row>
   </sheetData>

--- a/Reg4Event/registrations.xlsx
+++ b/Reg4Event/registrations.xlsx
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -496,7 +496,22 @@
         </is>
       </c>
       <c r="C2" s="5" t="n">
-        <v>45263.8885952807</v>
+        <v>45263.88859527778</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Василий Пупкин</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>45263.89178393981</v>
       </c>
     </row>
   </sheetData>

--- a/Reg4Event/registrations.xlsx
+++ b/Reg4Event/registrations.xlsx
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -511,7 +511,23 @@
         </is>
       </c>
       <c r="C3" s="5" t="n">
-        <v>45263.89178393981</v>
+        <v>45263.89178393519</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Мьюзикл</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Вася Пупкин</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" s="5" t="n">
+        <v>45263.89521106898</v>
       </c>
     </row>
   </sheetData>

--- a/Reg4Event/registrations.xlsx
+++ b/Reg4Event/registrations.xlsx
@@ -1,42 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Git\Reg4Event\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>event_name</t>
+  </si>
+  <si>
+    <t>user_info</t>
+  </si>
+  <si>
+    <t>recording_date</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -76,92 +94,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -449,85 +407,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A4" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="11.109375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="37.33203125" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="20" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
+    <col min="1" max="1" width="11.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" s="3">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>event_name</t>
-        </is>
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>user_info</t>
-        </is>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>recording_date</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Концерт</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Вася Васильев 89192543212</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>45263.88859527778</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Концерт</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Василий Пупкин</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>45263.89178393519</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Мьюзикл</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Вася Пупкин</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" s="5" t="n">
-        <v>45263.89521106898</v>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Reg4Event/registrations.xlsx
+++ b/Reg4Event/registrations.xlsx
@@ -1,60 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Git\Reg4Event\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>event_name</t>
-  </si>
-  <si>
-    <t>user_info</t>
-  </si>
-  <si>
-    <t>recording_date</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -94,32 +76,92 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -407,32 +449,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col width="11.109375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="37.33203125" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="20" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" ht="19.5" customHeight="1" s="3">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>event_name</t>
+        </is>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user_info</t>
+        </is>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>recording_date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Танцы</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Вася Пупкин</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" s="5" t="n">
+        <v>45263.90574177653</v>
       </c>
     </row>
   </sheetData>

--- a/Reg4Event/registrations.xlsx
+++ b/Reg4Event/registrations.xlsx
@@ -1,42 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Git\Reg4Event\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>event_name</t>
+  </si>
+  <si>
+    <t>user_info</t>
+  </si>
+  <si>
+    <t>user_phone</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -76,92 +94,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -449,55 +407,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A2:XFD4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="11.109375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="37.33203125" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="20" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
+    <col min="1" max="1" width="11.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" s="3">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>event_name</t>
-        </is>
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>user_info</t>
-        </is>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>recording_date</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Танцы</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Вася Пупкин</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" s="5" t="n">
-        <v>45263.90574177653</v>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Reg4Event/registrations.xlsx
+++ b/Reg4Event/registrations.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>event_name</t>
   </si>
@@ -27,7 +27,13 @@
     <t>user_info</t>
   </si>
   <si>
-    <t>user_phone</t>
+    <t>Концерт</t>
+  </si>
+  <si>
+    <t>Вася Пупкин 89184322345</t>
+  </si>
+  <si>
+    <t>user_regtime</t>
   </si>
 </sst>
 </file>
@@ -94,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -106,6 +112,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -411,10 +418,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,7 +429,7 @@
     <col min="1" max="1" width="11.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -433,7 +440,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45263.92900091441</v>
       </c>
     </row>
   </sheetData>

--- a/Reg4Event/registrations.xlsx
+++ b/Reg4Event/registrations.xlsx
@@ -1,66 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Git\Reg4Event\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>event_name</t>
-  </si>
-  <si>
-    <t>user_info</t>
-  </si>
-  <si>
-    <t>Концерт</t>
-  </si>
-  <si>
-    <t>Вася Пупкин 89184322345</t>
-  </si>
-  <si>
-    <t>user_regtime</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -100,33 +76,93 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -414,44 +450,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" style="3" bestFit="1" customWidth="1"/>
+    <col width="11.109375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="37.33203125" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="20" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
+    <col width="18.109375" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
+    <row r="1" ht="19.5" customHeight="1" s="3">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>event_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user_info</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>user_regtime</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5">
-        <v>45263.92900091441</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Вася Пупкин 89184322345</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>45263.92900091435</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Мьюзикл</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Игорь Рыков 89345547761</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>45263.93142518691</v>
       </c>
     </row>
   </sheetData>

--- a/Reg4Event/registrations.xlsx
+++ b/Reg4Event/registrations.xlsx
@@ -1,42 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Git\Reg4Event\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>event_name</t>
+  </si>
+  <si>
+    <t>user_info</t>
+  </si>
+  <si>
+    <t>user_regtime</t>
+  </si>
+  <si>
+    <t>Мьюзикл</t>
+  </si>
+  <si>
+    <t>Василий Пупкин</t>
+  </si>
+  <si>
+    <t>89127415544</t>
+  </si>
+  <si>
+    <t>user_phone</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,118 +81,58 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -450,70 +420,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="11.109375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="37.33203125" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="20" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
-    <col width="18.109375" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
+    <col min="1" max="1" width="11.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" s="3">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>event_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>user_info</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>user_regtime</t>
-        </is>
+    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Концерт</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Вася Пупкин 89184322345</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>45263.92900091435</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Мьюзикл</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Игорь Рыков 89345547761</t>
-        </is>
-      </c>
-      <c r="C3" s="6" t="n">
-        <v>45263.93142518691</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45263.940975032849</v>
       </c>
     </row>
   </sheetData>

--- a/Reg4Event/registrations.xlsx
+++ b/Reg4Event/registrations.xlsx
@@ -1,72 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Git\Reg4Event\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>event_name</t>
-  </si>
-  <si>
-    <t>user_info</t>
-  </si>
-  <si>
-    <t>user_regtime</t>
-  </si>
-  <si>
-    <t>Мьюзикл</t>
-  </si>
-  <si>
-    <t>Василий Пупкин</t>
-  </si>
-  <si>
-    <t>89127415544</t>
-  </si>
-  <si>
-    <t>user_phone</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -106,33 +76,93 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -420,50 +450,105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" style="3" bestFit="1" customWidth="1"/>
+    <col width="11.109375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="37.33203125" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="20" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="18.109375" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>event_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user_info</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>user_phone</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>user_regtime</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4">
-        <v>45263.940975032849</v>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Мьюзикл</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Василий Пупкин</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>89127415544</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>45263.94097503473</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Мьюзикл</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Игорь Васильев</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>89182231122</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>45263.9421459375</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Танцы</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Николай Николаев</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>89192238833</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>45263.94280605875</v>
       </c>
     </row>
   </sheetData>

--- a/Reg4Event/registrations.xlsx
+++ b/Reg4Event/registrations.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -548,7 +548,47 @@
         </is>
       </c>
       <c r="D4" s="6" t="n">
-        <v>45263.94280605875</v>
+        <v>45263.94280605324</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Филип Бедросов</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>89193384487</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>45263.94375422454</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Мьюзикл</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Александр Александров</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>89123873156</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>45263.94444769388</v>
       </c>
     </row>
   </sheetData>

--- a/Reg4Event/registrations.xlsx
+++ b/Reg4Event/registrations.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -588,7 +588,47 @@
         </is>
       </c>
       <c r="D6" s="6" t="n">
-        <v>45263.94444769388</v>
+        <v>45263.94444769676</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Танцы</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Лена Обнулена</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>89384356624</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>45263.94671489584</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Танцы</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Игорь Смачко</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>89145214563</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>45263.94947617783</v>
       </c>
     </row>
   </sheetData>

--- a/Reg4Event/registrations.xlsx
+++ b/Reg4Event/registrations.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -628,7 +628,47 @@
         </is>
       </c>
       <c r="D8" s="6" t="n">
-        <v>45263.94947617783</v>
+        <v>45263.94947618055</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Сергей Кострюлин</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Номер телефона не указан</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>45263.95179732639</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Мьюзикл</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Зонт Поддождевкин</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Номер телефона не указан</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>45263.95284119067</v>
       </c>
     </row>
   </sheetData>

--- a/Reg4Event/registrations.xlsx
+++ b/Reg4Event/registrations.xlsx
@@ -1,42 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Git\Reg4Event\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>event_name</t>
+  </si>
+  <si>
+    <t>user_info</t>
+  </si>
+  <si>
+    <t>user_phone</t>
+  </si>
+  <si>
+    <t>user_regtime</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -76,93 +97,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -450,225 +410,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="11.109375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="37.33203125" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="20" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="18.109375" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
+    <col min="1" max="1" width="11.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>event_name</t>
-        </is>
+    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>user_info</t>
-        </is>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>user_phone</t>
-        </is>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>user_regtime</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>Мьюзикл</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>Василий Пупкин</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>89127415544</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>45263.94097503473</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Мьюзикл</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Игорь Васильев</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>89182231122</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>45263.9421459375</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Танцы</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Николай Николаев</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>89192238833</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>45263.94280605324</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Концерт</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Филип Бедросов</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>89193384487</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>45263.94375422454</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Мьюзикл</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Александр Александров</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>89123873156</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>45263.94444769676</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Танцы</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Лена Обнулена</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>89384356624</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="n">
-        <v>45263.94671489584</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Танцы</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Игорь Смачко</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>89145214563</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>45263.94947618055</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Концерт</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Сергей Кострюлин</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Номер телефона не указан</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>45263.95179732639</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Мьюзикл</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Зонт Поддождевкин</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Номер телефона не указан</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>45263.95284119067</v>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Reg4Event/registrations.xlsx
+++ b/Reg4Event/registrations.xlsx
@@ -1,63 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Git\Reg4Event\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>event_name</t>
-  </si>
-  <si>
-    <t>user_info</t>
-  </si>
-  <si>
-    <t>user_phone</t>
-  </si>
-  <si>
-    <t>user_regtime</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -97,32 +76,92 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -410,36 +449,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" style="3" bestFit="1" customWidth="1"/>
+    <col width="11.109375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="37.33203125" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="20" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
+    <col width="18.109375" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>event_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user_info</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>user_phone</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>user_regtime</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Инна и. К.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>8946796425689</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>45263.96679533584</v>
       </c>
     </row>
   </sheetData>

--- a/Reg4Event/registrations.xlsx
+++ b/Reg4Event/registrations.xlsx
@@ -1,42 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Git\Reg4Event\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>event_name</t>
+  </si>
+  <si>
+    <t>user_info</t>
+  </si>
+  <si>
+    <t>user_phone</t>
+  </si>
+  <si>
+    <t>user_regtime</t>
+  </si>
+  <si>
+    <t>Танцы</t>
+  </si>
+  <si>
+    <t>Вольдемаров Вольдемар Вольдемарович</t>
+  </si>
+  <si>
+    <t>+792800000000</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -77,91 +107,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -449,65 +420,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="11.109375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="37.33203125" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="20" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
-    <col width="18.109375" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
+    <col min="1" max="1" width="11.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>event_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>user_info</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>user_phone</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>user_regtime</t>
-        </is>
+    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Концерт</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Инна и. К.</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>8946796425689</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>45263.96679533584</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5">
+        <v>45264.334568074482</v>
       </c>
     </row>
   </sheetData>

--- a/Reg4Event/registrations.xlsx
+++ b/Reg4Event/registrations.xlsx
@@ -1,72 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Git\Reg4Event\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>event_name</t>
-  </si>
-  <si>
-    <t>user_info</t>
-  </si>
-  <si>
-    <t>user_phone</t>
-  </si>
-  <si>
-    <t>user_regtime</t>
-  </si>
-  <si>
-    <t>Танцы</t>
-  </si>
-  <si>
-    <t>Вольдемаров Вольдемар Вольдемарович</t>
-  </si>
-  <si>
-    <t>+792800000000</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -106,33 +76,93 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -420,50 +450,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" style="3" bestFit="1" customWidth="1"/>
+    <col width="11.109375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="39.6640625" customWidth="1" style="3" min="2" max="2"/>
+    <col width="20" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
+    <col width="18.109375" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>event_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user_info</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>user_phone</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>user_regtime</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5">
-        <v>45264.334568074482</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Танцы</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Вольдемаров Вольдемар Вольдемарович</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>+792800000000</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>45264.3345680787</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ййй ййй ййй</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>+79064322607</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>45264.33824702688</v>
       </c>
     </row>
   </sheetData>

--- a/Reg4Event/registrations.xlsx
+++ b/Reg4Event/registrations.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -528,7 +528,27 @@
         </is>
       </c>
       <c r="D3" s="6" t="n">
-        <v>45264.33824702688</v>
+        <v>45264.33824702547</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Мьюзикл</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Иванов Иван Иванович</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>88009999</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>45264.42381681859</v>
       </c>
     </row>
   </sheetData>

--- a/Reg4Event/registrations.xlsx
+++ b/Reg4Event/registrations.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -548,7 +548,27 @@
         </is>
       </c>
       <c r="D4" s="6" t="n">
-        <v>45264.42381681859</v>
+        <v>45264.42381681713</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Мьюзикл</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Иван Рожков</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>89182733271</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>45264.98371732411</v>
       </c>
     </row>
   </sheetData>

--- a/Reg4Event/registrations.xlsx
+++ b/Reg4Event/registrations.xlsx
@@ -1,42 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Git\Reg4Event\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>event_name</t>
+  </si>
+  <si>
+    <t>user_info</t>
+  </si>
+  <si>
+    <t>user_phone</t>
+  </si>
+  <si>
+    <t>user_regtime</t>
+  </si>
+  <si>
+    <t>Мьюзикл</t>
+  </si>
+  <si>
+    <t>Иван Рожков</t>
+  </si>
+  <si>
+    <t>89182733271</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -76,93 +106,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -450,124 +420,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="11.109375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="39.6640625" customWidth="1" style="3" min="2" max="2"/>
-    <col width="20" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
-    <col width="18.109375" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
+    <col min="1" max="1" width="11.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>event_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>user_info</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>user_phone</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>user_regtime</t>
-        </is>
+    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Танцы</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Вольдемаров Вольдемар Вольдемарович</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>+792800000000</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>45264.3345680787</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Концерт</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Ййй ййй ййй</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>+79064322607</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>45264.33824702547</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Мьюзикл</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Иванов Иван Иванович</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>88009999</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>45264.42381681713</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Мьюзикл</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Иван Рожков</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>89182733271</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="n">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5">
         <v>45264.98371732411</v>
       </c>
     </row>
